--- a/examples/multid-template.xlsx
+++ b/examples/multid-template.xlsx
@@ -19,10 +19,10 @@
     <t>{{ | data | header | 1:0 }}</t>
   </si>
   <si>
-    <t>{{ A2 | 1 * data | header | 0:1 }}</t>
+    <t>{{ A2 | 1 * data | header | 1 }}</t>
   </si>
   <si>
-    <t>{{ C2 | data | header | 1:0 }}</t>
+    <t>{{ C2 | data | header | 1 }}</t>
   </si>
   <si>
     <t>{{ B3 | data * data || 1:1 }}</t>

--- a/examples/multid-template.xlsx
+++ b/examples/multid-template.xlsx
@@ -6,12 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="5D" sheetId="1" r:id="rId4"/>
+    <sheet name="4D-merges" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>{{ | | header }}</t>
   </si>
@@ -26,6 +27,15 @@
   </si>
   <si>
     <t>{{ B3 | data * data || 1:1 }}</t>
+  </si>
+  <si>
+    <t>{{ | data.1.data | header | 1:0 }}</t>
+  </si>
+  <si>
+    <t>{{ A2 | 1 * data | header | 1 | !mergeCells=false}}</t>
+  </si>
+  <si>
+    <t>{{ B2 | data * data || 1 }}</t>
   </si>
 </sst>
 </file>
@@ -155,7 +165,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -181,6 +191,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1459,4 +1472,201 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="16.3516" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="20.05" customHeight="1">
+      <c r="A2" t="s" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" t="s" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>